--- a/Facebook1.xlsx
+++ b/Facebook1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shach\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{733ACC71-83CF-4599-9A43-87F084751879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{11723D78-E285-4072-AA28-86521C0D2350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -14236,7 +14236,7 @@
   <dimension ref="A1:K2077"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14310,9 +14310,8 @@
       <c r="J2">
         <v>573576400</v>
       </c>
-      <c r="K2" t="e">
-        <f>SIGN(I2-I1)</f>
-        <v>#VALUE!</v>
+      <c r="K2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
